--- a/statistics/stats.xlsx
+++ b/statistics/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thistle\projects\enshu-git\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DE9BBE-E1D6-4939-913A-23FCE4A16C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D8EBF4-14FF-46B2-AAA6-7367B64E2E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" xr2:uid="{100D3688-3046-42EA-B15F-1D30D452F2D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{100D3688-3046-42EA-B15F-1D30D452F2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E06AD5-24E5-4242-9B1A-E48B3EAA545F}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1987,7 +1987,7 @@
         <v>1.7</v>
       </c>
       <c r="D49" s="2">
-        <v>5.5</v>
+        <v>91.9</v>
       </c>
       <c r="E49" s="2">
         <v>3922899.9999999995</v>
